--- a/data_Generic/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
+++ b/data_Generic/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Fontys_Campus\data_Generic\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422F991-AE1A-40E9-AA0D-5C987DBF39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC7213-9F7F-4B82-9A0B-6E5EA5D24FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="4" r:id="rId1"/>
@@ -799,7 +799,7 @@
     <t>building_id</t>
   </si>
   <si>
-    <t>adres_id</t>
+    <t>address_id</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1318,11 +1318,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z1">
-      <sortCondition descending="1" ref="Q1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Z1" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
